--- a/AAII_Financials/Yearly/QCOM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QCOM_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Yearly/QCOM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QCOM_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E7" s="2">
         <v>43737</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43002</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42638</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42274</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41910</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41546</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41182</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40811</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>21731000</v>
+      </c>
+      <c r="E8" s="3">
         <v>19573000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>22611000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>22258000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>23554000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>25281000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>26487000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>24866000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19121000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14957000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9255000</v>
+      </c>
+      <c r="E9" s="3">
         <v>8599000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10244000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9792000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9315000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10106000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10435000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9820000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7096000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4877000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>12476000</v>
+      </c>
+      <c r="E10" s="3">
         <v>10974000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>12367000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12466000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14239000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>15175000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>16052000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>15046000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12025000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10080000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,41 +839,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5975000</v>
+      </c>
+      <c r="E12" s="3">
         <v>5398000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5625000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5485000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5141000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5476000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5447000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4967000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3915000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2995000</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,42 +908,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-1423000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-4151000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4782000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2662000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>214000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>793000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>475000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>404000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>187000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>166000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -958,9 +980,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,74 +996,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>15881000</v>
+      </c>
+      <c r="E17" s="3">
         <v>12041000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>22065000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>19854000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17239000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>19685000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19106000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>17709000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13522000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9983000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>5850000</v>
+      </c>
+      <c r="E18" s="3">
         <v>7532000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>546000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2404000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6315000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5596000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7381000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7157000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5599000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4974000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1052,173 +1084,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>471000</v>
+      </c>
+      <c r="E20" s="3">
         <v>576000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>614000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1077000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>815000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>995000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1402000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1060000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1053000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>827000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>7714000</v>
+      </c>
+      <c r="E21" s="3">
         <v>9509000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2721000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4942000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8558000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>7805000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9933000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9234000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7549000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6862000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>602000</v>
+      </c>
+      <c r="E22" s="3">
         <v>627000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>768000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>494000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>297000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>104000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>23000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>90000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>114000</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>5719000</v>
+      </c>
+      <c r="E23" s="3">
         <v>7481000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>392000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2987000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6833000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6487000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8778000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8194000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6562000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5687000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>521000</v>
+      </c>
+      <c r="E24" s="3">
         <v>3095000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4913000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>543000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1131000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1219000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1244000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1349000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1279000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1132000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1249,75 +1297,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>5198000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4386000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4521000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2444000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5702000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5268000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7534000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6845000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5283000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4555000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>5198000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4386000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4521000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2445000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5705000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5271000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7537000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6853000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5333000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4573000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1348,9 +1405,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1358,11 +1418,11 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-443000</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
@@ -1370,20 +1430,23 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>430000</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>776000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-313000</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,75 +1513,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-471000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-576000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-614000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1077000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-815000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-995000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1402000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1060000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1053000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-827000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5198000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4386000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4964000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2445000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5705000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5271000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7967000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6853000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6109000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4260000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,80 +1621,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5198000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4386000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4964000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2445000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5705000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5271000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7967000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6853000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6109000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4260000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E38" s="2">
         <v>43737</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43002</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42638</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42274</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41910</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41546</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41182</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40811</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,305 +1733,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6707000</v>
+      </c>
+      <c r="E41" s="3">
         <v>11839000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11777000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>35029000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5946000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7560000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7907000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6142000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3807000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5462000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4507000</v>
+      </c>
+      <c r="E42" s="3">
         <v>421000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>311000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2279000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>12702000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>9761000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>9658000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>8824000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>8567000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6190000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4003000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2471000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2904000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3632000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2219000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1964000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2412000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2142000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1459000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>993000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2598000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1400000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1693000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2035000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1556000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1492000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1458000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1302000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1030000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>765000</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>704000</v>
+      </c>
+      <c r="E45" s="3">
         <v>634000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>699000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>618000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>558000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1322000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>978000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1145000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>782000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>883000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>18519000</v>
+      </c>
+      <c r="E46" s="3">
         <v>16765000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>17384000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>43593000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>22981000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>22099000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>22413000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>19555000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15645000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14293000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>982000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1130000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1087000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2252000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>14557000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>13626000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>14457000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>14440000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>14463000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9261000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4171000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3081000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5950000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3216000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2306000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2534000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2487000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2995000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2851000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2414000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7976000</v>
+      </c>
+      <c r="E49" s="3">
         <v>8454000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12490000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10360000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9179000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9221000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7068000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6529000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6855000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6531000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,42 +2126,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3946000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3527000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1854000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6065000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3336000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3316000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2149000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1997000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3198000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3923000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,42 +2198,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>35594000</v>
+      </c>
+      <c r="E54" s="3">
         <v>32957000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>32718000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>65486000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>52359000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>50796000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>48574000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>45516000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>43012000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>36422000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,206 +2269,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2248000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1368000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1825000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1971000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1858000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2183000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1554000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1298000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>969000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>514000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2513000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1019000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2495000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1749000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1000000</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>1164000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5910000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5054000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12023000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6441000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3704000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3800000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3830000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3659000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4004000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3344000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8672000</v>
+      </c>
+      <c r="E60" s="3">
         <v>8935000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11389000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10907000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7311000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6100000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6013000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5213000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5302000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5289000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>15342000</v>
+      </c>
+      <c r="E61" s="3">
         <v>13448000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>15382000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>19442000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>10008000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9969000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>17000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5503000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5665000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6365000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4391000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3272000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3313000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3395000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4199000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4165000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4161000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2403,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,42 +2590,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>29517000</v>
+      </c>
+      <c r="E66" s="3">
         <v>28048000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>31911000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>34740000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20581000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19375000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9405000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9428000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9489000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9471000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2583,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,42 +2786,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5284000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4466000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>542000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>30088000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>30936000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>31226000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>30799000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>25461000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20701000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16204000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,42 +2930,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6077000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4909000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>807000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>30746000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>31778000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>31421000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>39169000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>36088000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>33523000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26951000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,80 +3002,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E80" s="2">
         <v>43737</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43002</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42638</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42274</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41910</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41546</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41182</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40811</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5198000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4386000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4964000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2445000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5705000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5271000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7967000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6853000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6109000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4260000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,41 +3098,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1393000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1401000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1561000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1461000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1428000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1214000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1150000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1017000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>897000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1061000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,42 +3311,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5814000</v>
+      </c>
+      <c r="E89" s="3">
         <v>7286000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3908000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5001000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7632000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5506000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8887000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8763000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5998000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4900000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,41 +3366,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1407000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-887000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-784000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-690000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-539000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-994000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1185000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1048000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1284000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-593000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,42 +3471,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5263000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-806000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2381000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>20463000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3488000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3572000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1639000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1578000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6877000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4489000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,41 +3526,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2882000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2968000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3466000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3252000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2990000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2880000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2586000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2055000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1583000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1346000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,106 +3667,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5707000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6386000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-31500000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5571000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5754000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2261000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5480000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4845000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-757000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1518000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-32000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-41000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>48000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-20000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-19000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-14000</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5132000</v>
+      </c>
+      <c r="E102" s="3">
         <v>62000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-25252000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>31083000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1614000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-347000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1765000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2335000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1655000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1915000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/QCOM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QCOM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>QCOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,179 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44465</v>
+      </c>
+      <c r="E7" s="2">
         <v>44101</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43737</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43373</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43002</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42638</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41910</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41546</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41182</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40811</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>33566000</v>
+      </c>
+      <c r="E8" s="3">
         <v>21731000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>19573000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>22611000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>22258000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>23554000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>25281000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>26487000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>24866000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19121000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14957000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14262000</v>
+      </c>
+      <c r="E9" s="3">
         <v>9255000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8599000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10244000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9792000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9315000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10106000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10435000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9820000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7096000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4877000</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>19304000</v>
+      </c>
+      <c r="E10" s="3">
         <v>12476000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10974000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12367000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>12466000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>14239000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>15175000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>16052000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>15046000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12025000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10080000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,44 +852,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>7176000</v>
+      </c>
+      <c r="E12" s="3">
         <v>5975000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5398000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5625000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5485000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5141000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5476000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5447000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4967000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3915000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2995000</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -911,45 +927,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1423000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-4151000</v>
       </c>
-      <c r="F14" s="3">
-        <v>4782000</v>
-      </c>
       <c r="G14" s="3">
-        <v>2662000</v>
+        <v>4755000</v>
       </c>
       <c r="H14" s="3">
-        <v>214000</v>
+        <v>2694000</v>
       </c>
       <c r="I14" s="3">
-        <v>793000</v>
+        <v>206000</v>
       </c>
       <c r="J14" s="3">
+        <v>810000</v>
+      </c>
+      <c r="K14" s="3">
         <v>475000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>404000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>187000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>166000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -983,9 +1005,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,80 +1022,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>23810000</v>
+      </c>
+      <c r="E17" s="3">
         <v>15881000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12041000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22065000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>19854000</v>
       </c>
-      <c r="H17" s="3">
-        <v>17239000</v>
-      </c>
       <c r="I17" s="3">
-        <v>19685000</v>
+        <v>17231000</v>
       </c>
       <c r="J17" s="3">
+        <v>19702000</v>
+      </c>
+      <c r="K17" s="3">
         <v>19106000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17709000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13522000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9983000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>9756000</v>
+      </c>
+      <c r="E18" s="3">
         <v>5850000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7532000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>546000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2404000</v>
       </c>
-      <c r="H18" s="3">
-        <v>6315000</v>
-      </c>
       <c r="I18" s="3">
-        <v>5596000</v>
+        <v>6323000</v>
       </c>
       <c r="J18" s="3">
+        <v>5579000</v>
+      </c>
+      <c r="K18" s="3">
         <v>7381000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7157000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5599000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4974000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1085,188 +1117,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1077000</v>
+      </c>
+      <c r="E20" s="3">
         <v>471000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>576000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>614000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1077000</v>
       </c>
-      <c r="H20" s="3">
-        <v>815000</v>
-      </c>
       <c r="I20" s="3">
-        <v>995000</v>
+        <v>807000</v>
       </c>
       <c r="J20" s="3">
+        <v>1012000</v>
+      </c>
+      <c r="K20" s="3">
         <v>1402000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1060000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1053000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>827000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>12415000</v>
+      </c>
+      <c r="E21" s="3">
         <v>7714000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9509000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2721000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4942000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8558000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>7805000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9933000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9234000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7549000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6862000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>559000</v>
+      </c>
+      <c r="E22" s="3">
         <v>602000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>627000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>768000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>494000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>297000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>104000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>90000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>114000</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>10274000</v>
+      </c>
+      <c r="E23" s="3">
         <v>5719000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7481000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>392000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2987000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6833000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6487000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8778000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8194000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6562000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5687000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>1231000</v>
+      </c>
+      <c r="E24" s="3">
         <v>521000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3095000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4913000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>543000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1131000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1219000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1244000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1349000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1279000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1132000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,81 +1348,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>9043000</v>
+      </c>
+      <c r="E26" s="3">
         <v>5198000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4386000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4521000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2444000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5702000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5268000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7534000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6845000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5283000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4555000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>9043000</v>
+      </c>
+      <c r="E27" s="3">
         <v>5198000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4386000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4521000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2445000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5705000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5271000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7537000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6853000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5333000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4573000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1408,24 +1465,27 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-443000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
@@ -1433,20 +1493,23 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>430000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>776000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-313000</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,81 +1582,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1077000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-471000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-576000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-614000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1077000</v>
       </c>
-      <c r="H32" s="3">
-        <v>-815000</v>
-      </c>
       <c r="I32" s="3">
-        <v>-995000</v>
+        <v>-807000</v>
       </c>
       <c r="J32" s="3">
+        <v>-1012000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1402000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1060000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1053000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-827000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9043000</v>
+      </c>
+      <c r="E33" s="3">
         <v>5198000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4386000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4964000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2445000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5705000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5271000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7967000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6853000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6109000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4260000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,86 +1699,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9043000</v>
+      </c>
+      <c r="E35" s="3">
         <v>5198000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4386000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4964000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2445000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5705000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5271000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7967000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6853000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6109000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4260000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44465</v>
+      </c>
+      <c r="E38" s="2">
         <v>44101</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43737</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43373</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43002</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42638</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41910</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41546</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41182</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40811</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,332 +1819,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7116000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6707000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11839000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11777000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>35029000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5946000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7560000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7907000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6142000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3807000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5462000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5298000</v>
+      </c>
+      <c r="E42" s="3">
         <v>4507000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>421000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>311000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2279000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>12702000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>9761000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>9658000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>8824000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8567000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6190000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3579000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4003000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2471000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2904000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3632000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2219000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1964000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2412000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2142000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1459000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>993000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3228000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2598000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1400000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1693000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2035000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1556000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1492000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1458000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1302000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1030000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>765000</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>854000</v>
+      </c>
+      <c r="E45" s="3">
         <v>704000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>634000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>699000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>618000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>558000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1322000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>978000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1145000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>782000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>883000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20075000</v>
+      </c>
+      <c r="E46" s="3">
         <v>18519000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16765000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>17384000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>43593000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>22981000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>22099000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>22413000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19555000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15645000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14293000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1265000</v>
+      </c>
+      <c r="E47" s="3">
         <v>982000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1130000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1087000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2252000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>14557000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>13626000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>14457000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>14440000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>14463000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9261000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5072000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4171000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3081000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5950000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3216000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2306000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2534000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2487000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2995000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2851000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2414000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8704000</v>
+      </c>
+      <c r="E49" s="3">
         <v>7976000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8454000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12490000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10360000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9179000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9221000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7068000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6529000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6855000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6531000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,45 +2245,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6124000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3946000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3527000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1854000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6065000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3336000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3316000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2149000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1997000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3198000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3923000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,45 +2323,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>41240000</v>
+      </c>
+      <c r="E54" s="3">
         <v>35594000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>32957000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>32718000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>65486000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>52359000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>50796000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>48574000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>45516000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>43012000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>36422000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,224 +2399,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2750000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2248000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1368000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1825000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1971000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1858000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2183000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1554000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1298000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>969000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2044000</v>
+      </c>
+      <c r="E58" s="3">
         <v>514000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2513000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1019000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2495000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1749000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1000000</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>1164000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7157000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5910000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5054000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12023000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6441000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3704000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3800000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3830000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3659000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4004000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3344000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11951000</v>
+      </c>
+      <c r="E60" s="3">
         <v>8672000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8935000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11389000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10907000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7311000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6100000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6013000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5213000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5302000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5289000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13701000</v>
+      </c>
+      <c r="E61" s="3">
         <v>15342000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13448000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>15382000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>19442000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>10008000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9969000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>17000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5638000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5503000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5665000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6365000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4391000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3272000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3313000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3395000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4199000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4165000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4161000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2557,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,45 +2747,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31290000</v>
+      </c>
+      <c r="E66" s="3">
         <v>29517000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>28048000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>31911000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>34740000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>20581000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19375000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9405000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9428000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9489000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9471000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,9 +2881,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2753,9 +2920,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,45 +2959,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9822000</v>
+      </c>
+      <c r="E72" s="3">
         <v>5284000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4466000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>542000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>30088000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>30936000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>31226000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>30799000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>25461000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20701000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>16204000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,45 +3115,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9950000</v>
+      </c>
+      <c r="E76" s="3">
         <v>6077000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4909000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>807000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>30746000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>31778000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>31421000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>39169000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36088000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>33523000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26951000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,86 +3193,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44465</v>
+      </c>
+      <c r="E80" s="2">
         <v>44101</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43737</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43373</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43002</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42638</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41910</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41546</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41182</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40811</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9043000</v>
+      </c>
+      <c r="E81" s="3">
         <v>5198000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4386000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4964000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2445000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5705000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5271000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7967000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6853000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6109000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4260000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,44 +3296,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1582000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1393000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1401000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1561000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1461000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1428000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1214000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1150000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1017000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>897000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1061000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,45 +3527,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10536000</v>
+      </c>
+      <c r="E89" s="3">
         <v>5814000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7286000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3908000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5001000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7632000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5506000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8887000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8763000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5998000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4900000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,44 +3586,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1888000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1407000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-887000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-784000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-690000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-539000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-994000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1185000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1048000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1284000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-593000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,45 +3700,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3356000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5263000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-806000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2381000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>20463000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3488000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3572000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1639000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1578000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6877000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4489000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,44 +3759,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3008000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2882000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2968000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3466000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3252000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2990000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2880000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2586000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2055000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1583000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1346000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,115 +3912,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6798000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5707000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6386000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-31500000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5571000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5754000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2261000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5480000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4845000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-757000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1518000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E101" s="3">
         <v>24000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-32000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-41000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>48000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-20000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-19000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-14000</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>409000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5132000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>62000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-25252000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>31083000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1614000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-347000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1765000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2335000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1655000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1915000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/QCOM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QCOM_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,191 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44829</v>
+      </c>
+      <c r="E7" s="2">
         <v>44465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44101</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43737</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43002</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42638</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41910</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41546</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41182</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40811</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>44200000</v>
+      </c>
+      <c r="E8" s="3">
         <v>33566000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>21731000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19573000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>22611000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22258000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>23554000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>25281000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26487000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>24866000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19121000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14957000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>18635000</v>
+      </c>
+      <c r="E9" s="3">
         <v>14262000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9255000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8599000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10244000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9792000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9315000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10106000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10435000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9820000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7096000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4877000</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>25565000</v>
+      </c>
+      <c r="E10" s="3">
         <v>19304000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>12476000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10974000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>12367000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>12466000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>14239000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>15175000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>16052000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>15046000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12025000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10080000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,47 +865,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>8194000</v>
+      </c>
+      <c r="E12" s="3">
         <v>7176000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5975000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5398000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5625000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5485000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5141000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5476000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5447000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4967000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3915000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2995000</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,48 +946,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-1012000</v>
+      </c>
+      <c r="E14" s="3">
         <v>33000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1423000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-4151000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4755000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2694000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>206000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>810000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>475000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>404000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>187000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>166000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1008,9 +1030,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1023,86 +1048,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>28387000</v>
+      </c>
+      <c r="E17" s="3">
         <v>23810000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15881000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12041000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>22065000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>19854000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>17231000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19702000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19106000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17709000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13522000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9983000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>15813000</v>
+      </c>
+      <c r="E18" s="3">
         <v>9756000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5850000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7532000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>546000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2404000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6323000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5579000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7381000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7157000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5599000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4974000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1118,203 +1150,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-325000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1077000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>471000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>576000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>614000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1077000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>807000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1012000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1402000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1060000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1053000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>827000</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>17250000</v>
+      </c>
+      <c r="E21" s="3">
         <v>12415000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7714000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9509000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2721000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4942000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8558000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>7805000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9933000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9234000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7549000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6862000</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>490000</v>
+      </c>
+      <c r="E22" s="3">
         <v>559000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>602000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>627000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>768000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>494000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>297000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>104000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>23000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>90000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>114000</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>14998000</v>
+      </c>
+      <c r="E23" s="3">
         <v>10274000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5719000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7481000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>392000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2987000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6833000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6487000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8778000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8194000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6562000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5687000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>2012000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1231000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>521000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3095000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4913000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>543000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1131000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1219000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1244000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1349000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1279000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1132000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1351,87 +1399,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>12986000</v>
+      </c>
+      <c r="E26" s="3">
         <v>9043000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5198000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4386000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4521000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2444000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5702000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5268000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7534000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6845000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5283000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4555000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>12986000</v>
+      </c>
+      <c r="E27" s="3">
         <v>9043000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5198000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4386000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4521000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2445000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5705000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5271000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7537000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6853000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5333000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4573000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1468,27 +1525,30 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-443000</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
@@ -1496,20 +1556,23 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>430000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>776000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-313000</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1546,9 +1609,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1585,87 +1651,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>325000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1077000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-471000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-576000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-614000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1077000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-807000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1012000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1402000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1060000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1053000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-827000</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12936000</v>
+      </c>
+      <c r="E33" s="3">
         <v>9043000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5198000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4386000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4964000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2445000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5705000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5271000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7967000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6853000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6109000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4260000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1702,92 +1777,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12936000</v>
+      </c>
+      <c r="E35" s="3">
         <v>9043000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5198000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4386000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4964000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2445000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5705000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5271000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7967000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6853000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6109000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4260000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44829</v>
+      </c>
+      <c r="E38" s="2">
         <v>44465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44101</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43737</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43002</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42638</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41910</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41546</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41182</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40811</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1803,8 +1887,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1820,359 +1905,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2773000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7116000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6707000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11839000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11777000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>35029000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5946000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7560000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7907000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6142000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3807000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5462000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3609000</v>
+      </c>
+      <c r="E42" s="3">
         <v>5298000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>4507000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>421000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>311000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2279000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>12702000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>9761000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>9658000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8824000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8567000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>6190000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5643000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3579000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4003000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2471000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2904000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3632000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2219000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1964000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2412000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2142000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1459000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>993000</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6341000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3228000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2598000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1400000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1693000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2035000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1556000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1492000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1458000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1302000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1030000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>765000</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2358000</v>
+      </c>
+      <c r="E45" s="3">
         <v>854000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>704000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>634000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>699000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>618000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>558000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1322000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>978000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1145000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>782000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>883000</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20724000</v>
+      </c>
+      <c r="E46" s="3">
         <v>20075000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>18519000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>16765000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>17384000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>43593000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>22981000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>22099000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>22413000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19555000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15645000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14293000</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1294000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1265000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>982000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1130000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1087000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2252000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>14557000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>13626000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>14457000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>14440000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>14463000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9261000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5799000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5072000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4171000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3081000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5950000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3216000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2306000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2534000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2487000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2995000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2851000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2414000</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12390000</v>
+      </c>
+      <c r="E49" s="3">
         <v>8704000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7976000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>8454000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12490000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10360000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9179000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9221000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7068000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6529000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6855000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6531000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2209,9 +2322,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2248,48 +2364,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8807000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6124000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3946000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3527000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1854000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6065000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3336000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3316000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2149000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1997000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3198000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3923000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2326,48 +2448,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>49014000</v>
+      </c>
+      <c r="E54" s="3">
         <v>41240000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>35594000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>32957000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>32718000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>65486000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>52359000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>50796000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>48574000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>45516000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>43012000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>36422000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2383,8 +2511,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2400,242 +2529,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3796000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2750000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2248000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1368000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1825000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1971000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1858000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2183000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1554000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1298000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>969000</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1945000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2044000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>514000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2513000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1019000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2495000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1749000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1000000</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>1164000</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6125000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7157000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5910000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5054000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12023000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6441000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3704000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3800000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3830000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3659000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4004000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3344000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11866000</v>
+      </c>
+      <c r="E60" s="3">
         <v>11951000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8672000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8935000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11389000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10907000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7311000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6100000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6013000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5213000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5302000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5289000</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13537000</v>
+      </c>
+      <c r="E61" s="3">
         <v>13701000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>15342000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>13448000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>15382000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>19442000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>10008000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9969000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>17000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5479000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5638000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5503000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5665000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6365000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4391000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3272000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3313000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3395000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4199000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4165000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4161000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2672,9 +2820,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2711,9 +2862,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2750,48 +2904,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31001000</v>
+      </c>
+      <c r="E66" s="3">
         <v>31290000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>29517000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>28048000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>31911000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>34740000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>20581000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19375000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9405000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9428000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9489000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9471000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2807,8 +2967,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2845,9 +3006,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2884,9 +3048,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2923,9 +3090,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2962,48 +3132,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17840000</v>
+      </c>
+      <c r="E72" s="3">
         <v>9822000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5284000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4466000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>542000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>30088000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>30936000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>31226000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>30799000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>25461000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20701000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>16204000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3040,9 +3216,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3079,9 +3258,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3118,48 +3300,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18013000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9950000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6077000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4909000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>807000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>30746000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>31778000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>31421000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>39169000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>36088000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>33523000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26951000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3196,92 +3384,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44829</v>
+      </c>
+      <c r="E80" s="2">
         <v>44465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44101</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43737</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43002</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42638</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41910</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41546</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41182</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40811</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12936000</v>
+      </c>
+      <c r="E81" s="3">
         <v>9043000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5198000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4386000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4964000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2445000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5705000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5271000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7967000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6853000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6109000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4260000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3297,47 +3494,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1762000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1582000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1393000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1401000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1561000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1461000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1428000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1214000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1150000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1017000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>897000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1061000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3374,9 +3575,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3413,9 +3617,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3452,9 +3659,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3491,9 +3701,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3530,48 +3743,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9096000</v>
+      </c>
+      <c r="E89" s="3">
         <v>10536000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5814000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7286000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3908000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5001000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7632000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5506000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8887000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8763000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5998000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4900000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3587,47 +3806,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2262000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1888000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1407000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-887000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-784000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-690000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-539000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-994000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1185000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1048000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1284000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-593000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3664,9 +3887,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3703,48 +3929,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5804000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3356000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5263000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-806000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2381000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>20463000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3488000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3572000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1639000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1578000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6877000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4489000</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3760,47 +3992,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3212000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3008000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2882000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2968000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3466000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3252000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2990000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2880000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2586000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2055000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1583000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1346000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3837,9 +4073,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3876,9 +4115,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3915,124 +4157,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7196000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6798000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5707000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6386000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-31500000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5571000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5754000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2261000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5480000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4845000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-757000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1518000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-113000</v>
+      </c>
+      <c r="E101" s="3">
         <v>27000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>24000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-32000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-41000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>48000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-20000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-19000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-14000</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4017000</v>
+      </c>
+      <c r="E102" s="3">
         <v>409000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5132000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>62000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-25252000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>31083000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1614000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-347000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1765000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2335000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1655000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1915000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/QCOM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QCOM_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,191 +665,203 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45193</v>
+      </c>
+      <c r="E7" s="2">
         <v>44829</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44101</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43737</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43002</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42638</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41910</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41546</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41182</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40811</v>
       </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>35820000</v>
+      </c>
+      <c r="E8" s="3">
         <v>44200000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>33566000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>21731000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19573000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22611000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22258000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>23554000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>25281000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26487000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>24866000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19121000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14957000</v>
       </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15869000</v>
+      </c>
+      <c r="E9" s="3">
         <v>18635000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14262000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9255000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8599000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10244000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9792000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9315000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10106000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10435000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9820000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7096000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4877000</v>
       </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>19951000</v>
+      </c>
+      <c r="E10" s="3">
         <v>25565000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>19304000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12476000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10974000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>12367000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12466000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14239000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>15175000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>16052000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>15046000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12025000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>10080000</v>
       </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -866,50 +878,54 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>8818000</v>
+      </c>
+      <c r="E12" s="3">
         <v>8194000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7176000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5975000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5398000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5625000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5485000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5141000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5476000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5447000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4967000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3915000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2995000</v>
       </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,51 +965,57 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>994000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1012000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>33000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1423000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-4151000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4755000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2694000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>206000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>810000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>475000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>404000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>187000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>166000</v>
       </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1033,9 +1055,12 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1049,92 +1074,99 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>28164000</v>
+      </c>
+      <c r="E17" s="3">
         <v>28387000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23810000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15881000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12041000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>22065000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19854000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>17231000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19702000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19106000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17709000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13522000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9983000</v>
       </c>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>7656000</v>
+      </c>
+      <c r="E18" s="3">
         <v>15813000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9756000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5850000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7532000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>546000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2404000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6323000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5579000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7381000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7157000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5599000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4974000</v>
       </c>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1151,218 +1183,234 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>481000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-325000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1077000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>471000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>576000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>614000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1077000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>807000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1012000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1402000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1060000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1053000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>827000</v>
       </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>9946000</v>
+      </c>
+      <c r="E21" s="3">
         <v>17250000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12415000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7714000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9509000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2721000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4942000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8558000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7805000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9933000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9234000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7549000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6862000</v>
       </c>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>694000</v>
+      </c>
+      <c r="E22" s="3">
         <v>490000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>559000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>602000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>627000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>768000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>494000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>297000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>104000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>23000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>90000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>114000</v>
       </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>7443000</v>
+      </c>
+      <c r="E23" s="3">
         <v>14998000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10274000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5719000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7481000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>392000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2987000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6833000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6487000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8778000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8194000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6562000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5687000</v>
       </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2012000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1231000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>521000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3095000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4913000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>543000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1131000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1219000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1244000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1349000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1279000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1132000</v>
       </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1402,93 +1450,102 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>7339000</v>
+      </c>
+      <c r="E26" s="3">
         <v>12986000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9043000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5198000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4386000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4521000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2444000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5702000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5268000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7534000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6845000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5283000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4555000</v>
       </c>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>7339000</v>
+      </c>
+      <c r="E27" s="3">
         <v>12986000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9043000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5198000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4386000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4521000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2445000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5705000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5271000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7537000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6853000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5333000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4573000</v>
       </c>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1528,30 +1585,33 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-50000</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-443000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
@@ -1559,20 +1619,23 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>430000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>776000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-313000</v>
       </c>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1612,9 +1675,12 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1654,93 +1720,102 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-481000</v>
+      </c>
+      <c r="E32" s="3">
         <v>325000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1077000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-471000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-576000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-614000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1077000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-807000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1012000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1402000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1060000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1053000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-827000</v>
       </c>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7232000</v>
+      </c>
+      <c r="E33" s="3">
         <v>12936000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9043000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5198000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4386000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4964000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2445000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5705000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5271000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7967000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6853000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6109000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4260000</v>
       </c>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1780,98 +1855,107 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7232000</v>
+      </c>
+      <c r="E35" s="3">
         <v>12936000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9043000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5198000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4386000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4964000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2445000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5705000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5271000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7967000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6853000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6109000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4260000</v>
       </c>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45193</v>
+      </c>
+      <c r="E38" s="2">
         <v>44829</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44101</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43737</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43002</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42638</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41910</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41546</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41182</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40811</v>
       </c>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1888,8 +1972,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1906,386 +1991,414 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8450000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2773000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7116000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6707000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11839000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11777000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>35029000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5946000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7560000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7907000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6142000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3807000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5462000</v>
       </c>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2874000</v>
+      </c>
+      <c r="E42" s="3">
         <v>3609000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>5298000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>4507000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>421000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>311000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2279000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>12702000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>9761000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>9658000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8824000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>8567000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>6190000</v>
       </c>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3183000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5643000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3579000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4003000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2471000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2904000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3632000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2219000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1964000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2412000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2142000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1459000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>993000</v>
       </c>
-      <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6422000</v>
+      </c>
+      <c r="E44" s="3">
         <v>6341000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3228000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2598000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1400000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1693000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2035000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1556000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1492000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1458000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1302000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1030000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>765000</v>
       </c>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1535000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2358000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>854000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>704000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>634000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>699000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>618000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>558000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1322000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>978000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1145000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>782000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>883000</v>
       </c>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>22464000</v>
+      </c>
+      <c r="E46" s="3">
         <v>20724000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>20075000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>18519000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16765000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17384000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>43593000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>22981000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>22099000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>22413000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>19555000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15645000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14293000</v>
       </c>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1236000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1294000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1265000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>982000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1130000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1087000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2252000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>14557000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13626000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>14457000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>14440000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>14463000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9261000</v>
       </c>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5654000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5799000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5072000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4171000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3081000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5950000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3216000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2306000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2534000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2487000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2995000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2851000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2414000</v>
       </c>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12050000</v>
+      </c>
+      <c r="E49" s="3">
         <v>12390000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8704000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7976000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>8454000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12490000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10360000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9179000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9221000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7068000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6529000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6855000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6531000</v>
       </c>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2325,9 +2438,12 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2367,51 +2483,57 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-      <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9636000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8807000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6124000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3946000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3527000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1854000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6065000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3336000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3316000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2149000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1997000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3198000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3923000</v>
       </c>
-      <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2451,51 +2573,57 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>51040000</v>
+      </c>
+      <c r="E54" s="3">
         <v>49014000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>41240000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>35594000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>32957000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>32718000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>65486000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>52359000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>50796000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>48574000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>45516000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>43012000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>36422000</v>
       </c>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2512,8 +2640,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2530,260 +2659,279 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1912000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3796000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2750000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2248000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1368000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1825000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1971000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1858000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2183000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1554000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1298000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>969000</v>
       </c>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>914000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1945000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2044000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>514000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2513000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1019000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2495000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1749000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1000000</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="M58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>1164000</v>
       </c>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6802000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6125000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7157000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5910000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5054000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12023000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6441000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3704000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3800000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3830000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3659000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4004000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3344000</v>
       </c>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9628000</v>
+      </c>
+      <c r="E60" s="3">
         <v>11866000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11951000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8672000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8935000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11389000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10907000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7311000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6100000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6013000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5213000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5302000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5289000</v>
       </c>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14484000</v>
+      </c>
+      <c r="E61" s="3">
         <v>13537000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13701000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>15342000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>13448000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>15382000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>19442000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10008000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9969000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>17000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5309000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5479000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5638000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5503000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5665000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6365000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4391000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3272000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3313000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3395000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4199000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4165000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4161000</v>
       </c>
-      <c r="P62" s="3"/>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2823,9 +2971,12 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2865,9 +3016,12 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2907,51 +3061,57 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-      <c r="P65" s="3"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>29459000</v>
+      </c>
+      <c r="E66" s="3">
         <v>31001000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>31290000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>29517000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>28048000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>31911000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>34740000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>20581000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19375000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9405000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9428000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9489000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9471000</v>
       </c>
-      <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2968,8 +3128,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3009,9 +3170,12 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3051,9 +3215,12 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3093,9 +3260,12 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-      <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3135,51 +3305,57 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-      <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>20733000</v>
+      </c>
+      <c r="E72" s="3">
         <v>17840000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9822000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5284000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4466000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>542000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>30088000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>30936000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>31226000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>30799000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>25461000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20701000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>16204000</v>
       </c>
-      <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3219,9 +3395,12 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-      <c r="P73" s="3"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3261,9 +3440,12 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-      <c r="P74" s="3"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3303,51 +3485,57 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-      <c r="P75" s="3"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21581000</v>
+      </c>
+      <c r="E76" s="3">
         <v>18013000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9950000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6077000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4909000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>807000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>30746000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>31778000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31421000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>39169000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36088000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>33523000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26951000</v>
       </c>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3387,98 +3575,107 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-      <c r="P77" s="3"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45193</v>
+      </c>
+      <c r="E80" s="2">
         <v>44829</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44101</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43737</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43002</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42638</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41910</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41546</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41182</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40811</v>
       </c>
-      <c r="P80" s="2"/>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7232000</v>
+      </c>
+      <c r="E81" s="3">
         <v>12936000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9043000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5198000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4386000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4964000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2445000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5705000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5271000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7967000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6853000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6109000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4260000</v>
       </c>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3"/>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3495,50 +3692,54 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1809000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1762000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1582000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1393000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1401000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1561000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1461000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1428000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1214000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1150000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1017000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>897000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1061000</v>
       </c>
-      <c r="P83" s="3"/>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3"/>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3578,9 +3779,12 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-      <c r="P84" s="3"/>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3"/>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3620,9 +3824,12 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-      <c r="P85" s="3"/>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3"/>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3662,9 +3869,12 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-      <c r="P86" s="3"/>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3"/>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3704,9 +3914,12 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-      <c r="P87" s="3"/>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3"/>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3746,51 +3959,57 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-      <c r="P88" s="3"/>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3"/>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11299000</v>
+      </c>
+      <c r="E89" s="3">
         <v>9096000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10536000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5814000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7286000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3908000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5001000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7632000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5506000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8887000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8763000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5998000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4900000</v>
       </c>
-      <c r="P89" s="3"/>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3"/>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3807,50 +4026,54 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1450000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2262000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1888000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1407000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-887000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-784000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-690000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-539000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-994000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1185000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1048000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1284000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-593000</v>
       </c>
-      <c r="P91" s="3"/>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3890,9 +4113,12 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-      <c r="P92" s="3"/>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3932,51 +4158,57 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-      <c r="P93" s="3"/>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3"/>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>762000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5804000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3356000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5263000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-806000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2381000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>20463000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3488000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3572000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1639000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1578000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6877000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4489000</v>
       </c>
-      <c r="P94" s="3"/>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3"/>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3993,50 +4225,54 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3462000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3212000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3008000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2882000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2968000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3466000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3252000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2990000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2880000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2586000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2055000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1583000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1346000</v>
       </c>
-      <c r="P96" s="3"/>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4076,9 +4312,12 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-      <c r="P97" s="3"/>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4118,9 +4357,12 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-      <c r="P98" s="3"/>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4160,133 +4402,145 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-      <c r="P99" s="3"/>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6663000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7196000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6798000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5707000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6386000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-31500000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5571000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5754000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2261000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5480000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4845000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-757000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1518000</v>
       </c>
-      <c r="P100" s="3"/>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-113000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>27000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>24000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-32000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-41000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>48000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-20000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-19000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-14000</v>
       </c>
-      <c r="P101" s="3"/>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5428000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4017000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>409000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5132000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>62000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-25252000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>31083000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1614000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-347000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1765000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2335000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1655000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1915000</v>
       </c>
-      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
